--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AB/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AB/20/seed4/result_data_RandomForest.xlsx
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.545000000000001</v>
+        <v>5.241599999999997</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.9313</v>
+        <v>-21.9065</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.323799999999994</v>
+        <v>5.358599999999996</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-22.0765</v>
+        <v>-22.13479999999999</v>
       </c>
       <c r="B13" t="n">
         <v>4.02</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>5.916400000000002</v>
+        <v>6.064900000000002</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.45249999999997</v>
+        <v>-21.40229999999997</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.2393</v>
+        <v>-22.18960000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -754,7 +754,7 @@
         <v>-18.24</v>
       </c>
       <c r="B19" t="n">
-        <v>8.920200000000005</v>
+        <v>9.060900000000007</v>
       </c>
       <c r="C19" t="n">
         <v>-12.15</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-19.72509999999999</v>
+        <v>-19.61479999999998</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -870,10 +870,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.02659999999997</v>
+        <v>-21.03789999999997</v>
       </c>
       <c r="B26" t="n">
-        <v>4.251100000000005</v>
+        <v>4.262200000000004</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -887,10 +887,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.55109999999998</v>
+        <v>-21.53119999999998</v>
       </c>
       <c r="B27" t="n">
-        <v>4.828400000000005</v>
+        <v>4.904500000000004</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -921,10 +921,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.7199</v>
+        <v>-21.74490000000001</v>
       </c>
       <c r="B29" t="n">
-        <v>5.400600000000002</v>
+        <v>5.415400000000001</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-19.41419999999999</v>
+        <v>-19.41429999999999</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-19.8902</v>
+        <v>-19.81349999999999</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.380700000000008</v>
+        <v>8.455400000000003</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1077,7 +1077,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>4.477300000000001</v>
+        <v>4.356300000000001</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-21.52839999999999</v>
+        <v>-21.47349999999999</v>
       </c>
       <c r="B45" t="n">
         <v>5.73</v>
@@ -1230,7 +1230,7 @@
         <v>-21.83</v>
       </c>
       <c r="B47" t="n">
-        <v>5.784000000000002</v>
+        <v>5.315599999999998</v>
       </c>
       <c r="C47" t="n">
         <v>-11.84</v>
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.523200000000003</v>
+        <v>5.743699999999999</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.444799999999999</v>
+        <v>5.639899999999999</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1363,10 +1363,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.2844</v>
+        <v>-22.28879999999999</v>
       </c>
       <c r="B55" t="n">
-        <v>5.327099999999996</v>
+        <v>4.873499999999996</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.1323</v>
+        <v>-22.13280000000001</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.68299999999999</v>
+        <v>-21.7093</v>
       </c>
       <c r="B69" t="n">
-        <v>5.485599999999994</v>
+        <v>5.554199999999996</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1621,7 +1621,7 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>6.0872</v>
+        <v>6.2883</v>
       </c>
       <c r="C70" t="n">
         <v>-9.9</v>
@@ -1720,10 +1720,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-21.8605</v>
+        <v>-21.9522</v>
       </c>
       <c r="B76" t="n">
-        <v>5.756899999999999</v>
+        <v>5.459899999999999</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.83429999999998</v>
+        <v>-19.86109999999999</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.379000000000002</v>
+        <v>5.098700000000001</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.06110000000001</v>
+        <v>-22.04530000000001</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.81989999999999</v>
+        <v>-21.94009999999999</v>
       </c>
       <c r="B83" t="n">
-        <v>5.750400000000005</v>
+        <v>6.0137</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-20.80829999999998</v>
+        <v>-20.66599999999998</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2029,7 +2029,7 @@
         <v>-20.95</v>
       </c>
       <c r="B94" t="n">
-        <v>5.527799999999996</v>
+        <v>5.555599999999999</v>
       </c>
       <c r="C94" t="n">
         <v>-10.65</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-21.90150000000001</v>
+        <v>-21.91120000000002</v>
       </c>
       <c r="B97" t="n">
         <v>5.08</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>4.913099999999998</v>
+        <v>5.276499999999998</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.44710000000001</v>
+        <v>8.516700000000005</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
